--- a/00_プロジェクト管理/反復計画書_07.xlsx
+++ b/00_プロジェクト管理/反復計画書_07.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23003"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7693527-2FEA-4E73-AB9C-AE89266ADA60}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F3188CB-0F19-47B2-A43B-210B541A3BDE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -74,6 +74,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2020/6/5（午後）</t>
+  </si>
+  <si>
     <t>終了日</t>
     <rPh sb="0" eb="3">
       <t>シュウリョウビ</t>
@@ -81,7 +84,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020/6/12(午前のみ)</t>
+    <t>2020/6/5（午前中）</t>
+  </si>
+  <si>
+    <t>2020/6/15(午前のみ)</t>
   </si>
   <si>
     <t>期間</t>
@@ -91,13 +97,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>3.0日</t>
+  </si>
+  <si>
     <t>3.5日</t>
-  </si>
-  <si>
-    <t>3日</t>
-  </si>
-  <si>
-    <t>2日</t>
   </si>
   <si>
     <t>反復の終了判断基準</t>
@@ -154,6 +157,9 @@
       <t>ジッセキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/5(午前中)</t>
   </si>
   <si>
     <t>三目並べゲーム</t>
@@ -945,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,12 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1075,6 +1075,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1110,9 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1455,49 +1464,49 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="13.5">
-      <c r="A2" s="44"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="13.5">
-      <c r="A3" s="44"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" ht="13.5">
       <c r="A5" s="18" t="s">
@@ -1519,80 +1528,80 @@
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="42">
         <v>43984</v>
       </c>
-      <c r="D6" s="37">
-        <v>43987</v>
-      </c>
-      <c r="E6" s="38">
-        <v>43992</v>
+      <c r="D6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41">
+        <v>43993</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="37">
-        <v>43987</v>
-      </c>
-      <c r="D7" s="37">
+        <v>8</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="42">
         <v>43992</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>8</v>
+      <c r="E7" s="41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="C8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="114" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="41" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1600,46 +1609,54 @@
     </row>
     <row r="12" spans="1:5" ht="13.5">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="43">
+        <v>43984</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="13.5">
       <c r="A13" s="4"/>
       <c r="B13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="13.5">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="93" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1668,44 +1685,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1">
-      <c r="A2" s="44"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1744,7 +1761,7 @@
     <row r="7" spans="1:5" ht="13.5">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="30">
         <v>43987</v>
@@ -1759,52 +1776,52 @@
     <row r="8" spans="1:5" ht="13.5">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5">
       <c r="A11" s="36"/>
       <c r="B11" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1812,7 +1829,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.5">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>6</v>
@@ -1824,7 +1841,7 @@
     <row r="13" spans="1:5" ht="13.5">
       <c r="A13" s="4"/>
       <c r="B13" s="22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1833,7 +1850,7 @@
     <row r="14" spans="1:5" ht="13.5">
       <c r="A14" s="4"/>
       <c r="B14" s="22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1842,7 +1859,7 @@
     <row r="15" spans="1:5" ht="42.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1851,7 +1868,7 @@
     <row r="16" spans="1:5" ht="14.25" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1870,9 +1887,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,16 +2080,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2077,5 +2094,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
 </file>